--- a/output/fit_clients/fit_round_235.xlsx
+++ b/output/fit_clients/fit_round_235.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1917838976.116956</v>
+        <v>1640028186.703758</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09938372212800163</v>
+        <v>0.09680853721658189</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0323466224350926</v>
+        <v>0.03707209611262487</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>958919472.6142865</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1982855557.657191</v>
+        <v>2381385598.707513</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1548724425394089</v>
+        <v>0.1242755788106769</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03406205198214715</v>
+        <v>0.03757454828438728</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>991427816.2208897</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3708724230.124658</v>
+        <v>4295900027.838922</v>
       </c>
       <c r="F4" t="n">
-        <v>0.147546395772484</v>
+        <v>0.1470375766398966</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0253630355516038</v>
+        <v>0.03572862245501995</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>85</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1854362108.605034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3212220513.277187</v>
+        <v>3986470272.609177</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1099520322311252</v>
+        <v>0.095283429306784</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03918361045893953</v>
+        <v>0.04887444209687829</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1606110312.413687</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2472160307.301739</v>
+        <v>1931508114.386702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.114110009667221</v>
+        <v>0.1423110401268836</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04883157171344409</v>
+        <v>0.03440154459835557</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1236080132.135142</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2863331622.369819</v>
+        <v>2697872325.108817</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09639118066307424</v>
+        <v>0.0860360641512532</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04729668848295851</v>
+        <v>0.03906496707668251</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>73</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1431665789.273172</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3229450615.990936</v>
+        <v>3102471047.875339</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1376855226684764</v>
+        <v>0.153001911837834</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02761001041615625</v>
+        <v>0.02407321296902212</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>76</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1614725388.951857</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2065383468.635659</v>
+        <v>2301142769.456093</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1719556926770019</v>
+        <v>0.1252826014866742</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02540172814216026</v>
+        <v>0.02263403877126989</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1032691751.850868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4402536331.977789</v>
+        <v>3781056877.330837</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2035997089771021</v>
+        <v>0.1733087894421404</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04952534423090851</v>
+        <v>0.03593972380184695</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>99</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2201268219.059396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4173447914.42078</v>
+        <v>3149960393.564758</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1774066373707196</v>
+        <v>0.1868853597910552</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04224063131205218</v>
+        <v>0.04499600132440764</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>98</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2086723981.942749</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2357151479.097465</v>
+        <v>2266948183.198383</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1456481733558659</v>
+        <v>0.1604720612849315</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04910666115644724</v>
+        <v>0.04345659634841492</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1178575698.699759</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3902571708.810503</v>
+        <v>3759488701.609653</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08839540121983427</v>
+        <v>0.07863654778440553</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02012713973043972</v>
+        <v>0.01898751517697771</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>79</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1951285914.275331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3877735641.430679</v>
+        <v>3267037967.279571</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1821087191425491</v>
+        <v>0.1331347808365108</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02965231915296749</v>
+        <v>0.03466296729795525</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1938867791.578897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1385198893.507934</v>
+        <v>1839399365.443286</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08737856093720903</v>
+        <v>0.09451335109337367</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04008357487187191</v>
+        <v>0.04550694692255578</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>692599506.2143036</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1766940879.645124</v>
+        <v>2821491287.254802</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1029899327569372</v>
+        <v>0.09814566066389875</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04516354403116353</v>
+        <v>0.03822002718178596</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>883470536.1263943</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4093264581.550276</v>
+        <v>4151955680.687048</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1673755706744197</v>
+        <v>0.1518390043435346</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03313316585781879</v>
+        <v>0.03971668284841558</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>69</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2046632320.704914</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3723912075.940932</v>
+        <v>3914352717.232008</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1749900750215185</v>
+        <v>0.1288321962648946</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03169681687814513</v>
+        <v>0.02325849427999063</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>77</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1861956015.7841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1002502128.64983</v>
+        <v>972526374.9863348</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1278260051105437</v>
+        <v>0.147476949069075</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02666017365984697</v>
+        <v>0.02155367544819083</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>501251094.1510342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2013946755.10833</v>
+        <v>2573649174.794055</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1399379238917215</v>
+        <v>0.1516743380343189</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0297599640400398</v>
+        <v>0.02649273236207492</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1006973402.410023</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1832509172.797464</v>
+        <v>1972425357.306296</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06621699768964245</v>
+        <v>0.1013062832061818</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02836782157720829</v>
+        <v>0.0310086388782753</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>916254638.3335774</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3959625914.910761</v>
+        <v>3306352899.398932</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1176798580809547</v>
+        <v>0.1286594698628354</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03864151139400974</v>
+        <v>0.04682639989098894</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1979812961.512379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1210134672.221548</v>
+        <v>1424304908.90969</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1537952627596134</v>
+        <v>0.170682050670344</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04318154004464511</v>
+        <v>0.04310861382385662</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>605067370.8918519</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3395145431.530436</v>
+        <v>3879922215.766285</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1204265589193904</v>
+        <v>0.1335018907112069</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03542625316577409</v>
+        <v>0.02308776516220378</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>69</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1697572724.425185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>959808821.9900975</v>
+        <v>964147401.2542769</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09139308745346077</v>
+        <v>0.1192424958363167</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02796105001612861</v>
+        <v>0.01926227650010808</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>479904484.2306811</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1393699704.793056</v>
+        <v>1369543965.782679</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1102551325644824</v>
+        <v>0.08691799534032299</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02485626198853273</v>
+        <v>0.03432330730022085</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>696849920.8141472</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3746133681.231106</v>
+        <v>3981659081.847512</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1269338067954029</v>
+        <v>0.1574209053125464</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02221225929740405</v>
+        <v>0.01879373648328827</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1873066863.391883</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3644089307.40603</v>
+        <v>2958756984.237953</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09351079621865241</v>
+        <v>0.1466973403981618</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04630586468670176</v>
+        <v>0.0440248245832616</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>76</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1822044720.827487</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5165148651.174454</v>
+        <v>4816718668.724221</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1226490379958979</v>
+        <v>0.09711643868962531</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0337511747600324</v>
+        <v>0.03916714933110386</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>104</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2582574261.696795</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1571009208.439557</v>
+        <v>2202584382.597212</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1340949823379398</v>
+        <v>0.09979621108909038</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02552405898222157</v>
+        <v>0.02900414794099595</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>785504592.7837956</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1304219209.577171</v>
+        <v>1147048309.265002</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08884188972256499</v>
+        <v>0.1117730941084311</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04208403312289154</v>
+        <v>0.03793772011697633</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>652109531.7136756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1698039710.388995</v>
+        <v>1803048226.939898</v>
       </c>
       <c r="F32" t="n">
-        <v>0.106200217769711</v>
+        <v>0.1022064822156991</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0331348710469337</v>
+        <v>0.03785351019567648</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>849019964.567439</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2802488817.831186</v>
+        <v>2479035780.1545</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1673777941179493</v>
+        <v>0.1765458321465869</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04635146804031516</v>
+        <v>0.04806646274638619</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>69</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1401244421.353176</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1461071305.817197</v>
+        <v>1037642746.029055</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08157071053944744</v>
+        <v>0.08194569906020147</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02475875775235981</v>
+        <v>0.02348487850822411</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>730535615.1403462</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1280973573.738895</v>
+        <v>1182323088.701883</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1072439003123579</v>
+        <v>0.1001221258341802</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02739325868995835</v>
+        <v>0.03313482507638948</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>640486743.8386199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2977467521.082814</v>
+        <v>2438824142.440119</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1196127522584361</v>
+        <v>0.1129125561390868</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02552454104696827</v>
+        <v>0.02052935265960106</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>58</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1488733744.271506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2330612756.005457</v>
+        <v>2128932569.5027</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1038734738405811</v>
+        <v>0.07303450155894252</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03445392630071597</v>
+        <v>0.03526525783671833</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>61</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1165306450.744753</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1627913869.52885</v>
+        <v>1951245613.823457</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09464396104821771</v>
+        <v>0.09491319621164682</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0246959933065522</v>
+        <v>0.02700518537265585</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>813956965.9431454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2090846783.074769</v>
+        <v>2214351809.883306</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1742247145453345</v>
+        <v>0.1249317205025383</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02786686874707739</v>
+        <v>0.03309812986336564</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1045423372.264399</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1785963325.360103</v>
+        <v>1760068786.046758</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1056336155815199</v>
+        <v>0.1114408246743887</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04872497499649813</v>
+        <v>0.05494672833741519</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>892981557.2837971</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1849911127.386215</v>
+        <v>1888274272.255593</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1184658909841348</v>
+        <v>0.130979892760891</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04258735707684552</v>
+        <v>0.02978177663511882</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>57</v>
-      </c>
-      <c r="J41" t="n">
-        <v>924955652.6466339</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3038866531.817813</v>
+        <v>3571269860.446097</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1136857558674642</v>
+        <v>0.0983478243120733</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03843864917873163</v>
+        <v>0.02938017495260678</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1519433229.008618</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2026859194.702022</v>
+        <v>2395377464.232732</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1281081201253093</v>
+        <v>0.1523000866855417</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02249241269896944</v>
+        <v>0.02491713757603944</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>81</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1013429693.565125</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1768141855.897249</v>
+        <v>1485712652.141253</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09294099767372921</v>
+        <v>0.1011021038041442</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03675918743715566</v>
+        <v>0.0246005600062839</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>884070988.0204659</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1853657326.04111</v>
+        <v>2544957140.776834</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1405023651459543</v>
+        <v>0.1337448166993569</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05506496789141439</v>
+        <v>0.05041245947885228</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>926828639.1313525</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5206779446.977201</v>
+        <v>3554238877.01938</v>
       </c>
       <c r="F46" t="n">
-        <v>0.129520409080112</v>
+        <v>0.137088913037582</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05676815526427081</v>
+        <v>0.0593653183290839</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>84</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2603389762.093278</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3950636335.509382</v>
+        <v>4670693808.869794</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1403655906899542</v>
+        <v>0.1409676111594005</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04687227134711096</v>
+        <v>0.05362052931794402</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>63</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1975318164.064328</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3750722636.422893</v>
+        <v>3097274447.29944</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07208667751277242</v>
+        <v>0.07080762675892797</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02539486330955443</v>
+        <v>0.02520870653030113</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>79</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1875361367.058987</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1790013743.390149</v>
+        <v>1972571613.86034</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1697841085675562</v>
+        <v>0.1217163265296224</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03316061998199978</v>
+        <v>0.03948784605710275</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>895006858.6204559</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2728562354.566362</v>
+        <v>3909758353.955979</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1606570612950796</v>
+        <v>0.1238393083746505</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04813802350934082</v>
+        <v>0.04607586462082931</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>80</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1364281256.415043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>955851132.1869481</v>
+        <v>1423574817.399435</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1423097347580769</v>
+        <v>0.1887992421839721</v>
       </c>
       <c r="G51" t="n">
-        <v>0.043601175207466</v>
+        <v>0.03728818969043086</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>477925657.1880763</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4753844428.116748</v>
+        <v>3981724975.722089</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1125395132225323</v>
+        <v>0.09309222733781145</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05062931078389211</v>
+        <v>0.05754471669247841</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>97</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2376922226.159591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2394786063.974981</v>
+        <v>3637278681.401546</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1868427203509153</v>
+        <v>0.1777931847270411</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02603257473970558</v>
+        <v>0.02876459522586178</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>68</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1197393106.164677</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3178927340.962862</v>
+        <v>4092051132.144673</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1164438920825258</v>
+        <v>0.1462380977316786</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04915012554422594</v>
+        <v>0.03770840795147424</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>77</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1589463670.049833</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4648420021.368535</v>
+        <v>4020832479.827524</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1860367158214999</v>
+        <v>0.157250351062925</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02162399153027483</v>
+        <v>0.03198154686870874</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>62</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2324210014.18694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1860289414.69308</v>
+        <v>1711971755.284865</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1510651307305012</v>
+        <v>0.1042391314682664</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04561612282032944</v>
+        <v>0.04559391619514499</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>930144696.2282246</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3883626652.498097</v>
+        <v>4511846208.601792</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1743920281570673</v>
+        <v>0.1688937126110436</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02430334548184533</v>
+        <v>0.02167704801442416</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>75</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1941813404.834497</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1220888561.393233</v>
+        <v>1503521829.832937</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1753007730181305</v>
+        <v>0.1827551768460462</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03557556017875199</v>
+        <v>0.03875106141201157</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>610444337.3006182</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4724509896.82055</v>
+        <v>3996088982.725611</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08985137633284947</v>
+        <v>0.08045042678668111</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03552819035265757</v>
+        <v>0.04200965081927201</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2362254889.384543</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3197765749.376852</v>
+        <v>3588873206.570192</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1615231635690865</v>
+        <v>0.1938773775018698</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02204946855148878</v>
+        <v>0.02604839369727619</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>74</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1598882965.771805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2495606820.021007</v>
+        <v>2518663325.27723</v>
       </c>
       <c r="F61" t="n">
-        <v>0.121828229003305</v>
+        <v>0.1199796575333494</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02330598278802004</v>
+        <v>0.02844966470615982</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>81</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1247803438.032511</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1904334475.87696</v>
+        <v>1742114936.935694</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1299570275133893</v>
+        <v>0.1528954071570163</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03943484327686909</v>
+        <v>0.04571668346320156</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>952167281.6581619</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4239600914.721296</v>
+        <v>4558196637.994271</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06575350489991191</v>
+        <v>0.1073453014548341</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03077297216285198</v>
+        <v>0.0289728062551012</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>67</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2119800509.030655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3954714343.290672</v>
+        <v>4032321318.832097</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1702544596165143</v>
+        <v>0.172061810764775</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03221961681929774</v>
+        <v>0.022120343994337</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>73</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1977357204.303404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4164450087.324082</v>
+        <v>5232046978.615458</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1558112342388228</v>
+        <v>0.1395218867593501</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03079813485622683</v>
+        <v>0.02053051225048064</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>84</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2082225052.422729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5376872798.385001</v>
+        <v>5090164679.218107</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1175786908547973</v>
+        <v>0.1352908991594331</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03761312087661194</v>
+        <v>0.03819664923480574</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>69</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2688436446.511345</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3112082527.429076</v>
+        <v>2549421670.728655</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07144809421373358</v>
+        <v>0.07259269948476035</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04460397237171559</v>
+        <v>0.03865613288977348</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>76</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1556041272.446219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5567511044.424964</v>
+        <v>4341300284.253526</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1315143665519113</v>
+        <v>0.1567985234921306</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05086303963814783</v>
+        <v>0.04707161819929767</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2783755612.974184</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1843020429.952178</v>
+        <v>1992658309.8945</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1341835272970851</v>
+        <v>0.1179203626659918</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03690900906650078</v>
+        <v>0.05292621054280448</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>921510199.6243241</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2649856187.145083</v>
+        <v>2588174097.668402</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07972223111354949</v>
+        <v>0.0702820501053053</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03394091737688899</v>
+        <v>0.03596572226499157</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>66</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1324928047.773425</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4358804474.415058</v>
+        <v>4491921766.619023</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1509169326548739</v>
+        <v>0.119484284169748</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0243758654609055</v>
+        <v>0.02099774858096829</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>86</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2179402295.066128</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1967339447.699942</v>
+        <v>1849766995.133083</v>
       </c>
       <c r="F72" t="n">
-        <v>0.102979855752242</v>
+        <v>0.1072938961292677</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04137453932677408</v>
+        <v>0.03482588383695535</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>983669675.4692533</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3395867176.301604</v>
+        <v>2374476890.017646</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1005444218048404</v>
+        <v>0.1093847557936131</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03192939895572428</v>
+        <v>0.03525837913287024</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>91</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1697933547.852368</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3887090082.067829</v>
+        <v>2442827166.882661</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1647525179115115</v>
+        <v>0.1148561734852844</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02774358690703261</v>
+        <v>0.02897498052832468</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>80</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1943545029.751968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2194934110.463609</v>
+        <v>1853306896.912383</v>
       </c>
       <c r="F75" t="n">
-        <v>0.101917654807136</v>
+        <v>0.1057133784409984</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0292888321331438</v>
+        <v>0.02320230452770642</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1097467001.081595</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3229397806.312595</v>
+        <v>3453243579.055639</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1127436142116239</v>
+        <v>0.1028836682279197</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02999097157159742</v>
+        <v>0.02293727548381505</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1614698855.567463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1831879874.429496</v>
+        <v>1878619592.290557</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1565100359575343</v>
+        <v>0.1516576638433428</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02112781869586741</v>
+        <v>0.02583937116461671</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>915939973.8942432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3485871332.862031</v>
+        <v>2911085397.527652</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1243045350984877</v>
+        <v>0.129114662076103</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05429521762664491</v>
+        <v>0.04742799867065368</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>82</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1742935668.939264</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1763284314.444741</v>
+        <v>1548460761.501177</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1606387855511429</v>
+        <v>0.1503096990784567</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03687194906749015</v>
+        <v>0.03702486603875568</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>881642237.4790589</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3721731005.392492</v>
+        <v>3599554604.418365</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08683305216646936</v>
+        <v>0.1054687713820294</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02940528883762259</v>
+        <v>0.03338216870065385</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>49</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1860865488.315954</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4973744752.457866</v>
+        <v>3315315576.124775</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09344469651894774</v>
+        <v>0.09413245160325225</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02209398788813733</v>
+        <v>0.02693028358002644</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2486872375.557206</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4035439232.309536</v>
+        <v>4374640066.25244</v>
       </c>
       <c r="F82" t="n">
-        <v>0.193345445709651</v>
+        <v>0.1917077090041269</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02461253824840057</v>
+        <v>0.02847491612616023</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2017719653.933574</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1980872304.412209</v>
+        <v>2340259658.781067</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1101981685779423</v>
+        <v>0.1432900862849574</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02807085349145964</v>
+        <v>0.03230349238436391</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>990436135.1573735</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2141378689.095893</v>
+        <v>1592342531.527172</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08829686222779078</v>
+        <v>0.1186369846182695</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03962195070069004</v>
+        <v>0.04988040916018038</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1070689328.844688</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2882987451.031773</v>
+        <v>3641396252.339661</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1823444295403699</v>
+        <v>0.1358100411323453</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05233760797384553</v>
+        <v>0.04764944102284845</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>89</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1441493772.737584</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2719398462.015943</v>
+        <v>2030659625.441916</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1416010253408659</v>
+        <v>0.1537586691788183</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0189925188702018</v>
+        <v>0.01843838851438766</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>30</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1359699358.660127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1207587747.060247</v>
+        <v>1083299098.114093</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1667323074532714</v>
+        <v>0.1787988423824775</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03882797523599896</v>
+        <v>0.02928795878382095</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>603793931.0451217</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2933135163.12919</v>
+        <v>3057869952.636828</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1661856858230761</v>
+        <v>0.1365638355173651</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02974999304611633</v>
+        <v>0.02939332523964671</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>93</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1466567605.393333</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3250858501.376636</v>
+        <v>2636532361.231149</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1426952577749138</v>
+        <v>0.1440997977862269</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04075920235945731</v>
+        <v>0.04057128311902037</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>79</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1625429270.399216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2104288108.635546</v>
+        <v>1997230057.38304</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1165589062636766</v>
+        <v>0.1238895700535361</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05205620527779774</v>
+        <v>0.04778569761146609</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1052144143.671839</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1812291681.560027</v>
+        <v>1396912291.592901</v>
       </c>
       <c r="F91" t="n">
-        <v>0.170650653811352</v>
+        <v>0.124567059499655</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05662403430897733</v>
+        <v>0.04094192054902759</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>906145838.0558773</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2610191538.296079</v>
+        <v>2936228093.147983</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0875921200609988</v>
+        <v>0.07088099624543429</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04014988050729534</v>
+        <v>0.03659120245947276</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>59</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1305095761.403038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4869437492.525147</v>
+        <v>4988615529.719167</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1258843352543014</v>
+        <v>0.1317439962940188</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04344658947253166</v>
+        <v>0.03342203702328846</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2434718690.653255</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2231109402.660738</v>
+        <v>1742516432.597882</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1410456148614987</v>
+        <v>0.1026080115879539</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03949127062496457</v>
+        <v>0.03852542521527873</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1115554729.728177</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2771641368.052856</v>
+        <v>3077847408.983566</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1187274324785806</v>
+        <v>0.1098050795793513</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04328449866831652</v>
+        <v>0.0509331545519623</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>57</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1385820700.355392</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1862419512.532435</v>
+        <v>1904861368.31704</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1152779491066642</v>
+        <v>0.1047352057935679</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03756633843292134</v>
+        <v>0.03913079360931492</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>931209757.9206876</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5271725217.352732</v>
+        <v>4006893327.076065</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1223791195239455</v>
+        <v>0.1221404428965199</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02609026518609894</v>
+        <v>0.02321866481938313</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>76</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2635862767.309358</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2691706217.416044</v>
+        <v>2669008608.717885</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1185781665905875</v>
+        <v>0.1025773609285548</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02357964981702425</v>
+        <v>0.02297314453429426</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>63</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1345853072.472641</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2755253284.204243</v>
+        <v>2409478150.457595</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1471229157193061</v>
+        <v>0.09420465872999831</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02464641978654521</v>
+        <v>0.03493156486883527</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>74</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1377626610.297517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3213510163.609371</v>
+        <v>4347149901.066531</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1514985097011362</v>
+        <v>0.1459615916901152</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02697825773677082</v>
+        <v>0.02341497720609631</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>72</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1606755089.688267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3566336434.272214</v>
+        <v>2284833694.694472</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2077139498791172</v>
+        <v>0.1966278956722813</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04575398860552984</v>
+        <v>0.04340695251681193</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>95</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1783168381.000526</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_235.xlsx
+++ b/output/fit_clients/fit_round_235.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1640028186.703758</v>
+        <v>2378856602.618196</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09680853721658189</v>
+        <v>0.1082527138555243</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03707209611262487</v>
+        <v>0.04558020300841929</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2381385598.707513</v>
+        <v>2332717141.985694</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1242755788106769</v>
+        <v>0.1615774090641829</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03757454828438728</v>
+        <v>0.04429197255108597</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4295900027.838922</v>
+        <v>4720207074.142263</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1470375766398966</v>
+        <v>0.1402679171212966</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03572862245501995</v>
+        <v>0.02550951998330729</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3986470272.609177</v>
+        <v>2877766292.61069</v>
       </c>
       <c r="F5" t="n">
-        <v>0.095283429306784</v>
+        <v>0.1057639965472523</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04887444209687829</v>
+        <v>0.03121911870879049</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1931508114.386702</v>
+        <v>2358995744.450303</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1423110401268836</v>
+        <v>0.1472432222109571</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03440154459835557</v>
+        <v>0.04922518109347675</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2697872325.108817</v>
+        <v>2643067453.451623</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0860360641512532</v>
+        <v>0.082084356155886</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03906496707668251</v>
+        <v>0.03659560170936196</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3102471047.875339</v>
+        <v>2994588289.016246</v>
       </c>
       <c r="F8" t="n">
-        <v>0.153001911837834</v>
+        <v>0.1911810451243022</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02407321296902212</v>
+        <v>0.02286672817583969</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2301142769.456093</v>
+        <v>1400177907.958093</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1252826014866742</v>
+        <v>0.142628558928883</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02263403877126989</v>
+        <v>0.03635493489342572</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3781056877.330837</v>
+        <v>4034259524.00156</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1733087894421404</v>
+        <v>0.1672584956558382</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03593972380184695</v>
+        <v>0.04145286222589464</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3149960393.564758</v>
+        <v>3807566429.778957</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1868853597910552</v>
+        <v>0.1193773331164185</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04499600132440764</v>
+        <v>0.04879512737056575</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2266948183.198383</v>
+        <v>2495574241.303504</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1604720612849315</v>
+        <v>0.1363949545690187</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04345659634841492</v>
+        <v>0.05253708826219071</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3759488701.609653</v>
+        <v>3899262917.0138</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07863654778440553</v>
+        <v>0.07828369756951099</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01898751517697771</v>
+        <v>0.02135875963855887</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3267037967.279571</v>
+        <v>3673696816.318096</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1331347808365108</v>
+        <v>0.1809737437580449</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03466296729795525</v>
+        <v>0.03270245128692136</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1839399365.443286</v>
+        <v>1710362784.357134</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09451335109337367</v>
+        <v>0.06999477759970106</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04550694692255578</v>
+        <v>0.04578814286475932</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2821491287.254802</v>
+        <v>2795699117.969307</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09814566066389875</v>
+        <v>0.07107511149508203</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03822002718178596</v>
+        <v>0.03399257827411685</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4151955680.687048</v>
+        <v>4201619862.540303</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1518390043435346</v>
+        <v>0.1068939258579848</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03971668284841558</v>
+        <v>0.05039454296779755</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3914352717.232008</v>
+        <v>3482123048.54458</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1288321962648946</v>
+        <v>0.1721873347154678</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02325849427999063</v>
+        <v>0.02669045391492273</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>972526374.9863348</v>
+        <v>849434476.3711567</v>
       </c>
       <c r="F19" t="n">
-        <v>0.147476949069075</v>
+        <v>0.1720017322061201</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02155367544819083</v>
+        <v>0.02162552441801507</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2573649174.794055</v>
+        <v>2669449536.042738</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1516743380343189</v>
+        <v>0.151115059712702</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02649273236207492</v>
+        <v>0.02803087691308191</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1972425357.306296</v>
+        <v>2333892181.703389</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1013062832061818</v>
+        <v>0.0751860520469524</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0310086388782753</v>
+        <v>0.0339793726847193</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3306352899.398932</v>
+        <v>2478557271.386835</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1286594698628354</v>
+        <v>0.1274347232162069</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04682639989098894</v>
+        <v>0.04901958112956713</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1424304908.90969</v>
+        <v>1030764096.930651</v>
       </c>
       <c r="F23" t="n">
-        <v>0.170682050670344</v>
+        <v>0.1194074862164815</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04310861382385662</v>
+        <v>0.04095721456817894</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3879922215.766285</v>
+        <v>3986458854.190563</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1335018907112069</v>
+        <v>0.1226572392857679</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02308776516220378</v>
+        <v>0.02903628201200667</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>964147401.2542769</v>
+        <v>1165112932.424269</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1192424958363167</v>
+        <v>0.1170843505374883</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01926227650010808</v>
+        <v>0.02447094535743366</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1369543965.782679</v>
+        <v>1222614284.465582</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08691799534032299</v>
+        <v>0.09685006582946648</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03432330730022085</v>
+        <v>0.0260111877022829</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3981659081.847512</v>
+        <v>2912023664.126285</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1574209053125464</v>
+        <v>0.1212676470356838</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01879373648328827</v>
+        <v>0.02032269717071397</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2958756984.237953</v>
+        <v>2706714991.444438</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1466973403981618</v>
+        <v>0.1010426531947487</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0440248245832616</v>
+        <v>0.04037027928152137</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4816718668.724221</v>
+        <v>4165501252.93848</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09711643868962531</v>
+        <v>0.1462406681967683</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03916714933110386</v>
+        <v>0.03977064170076039</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2202584382.597212</v>
+        <v>1746254490.090727</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09979621108909038</v>
+        <v>0.1225919944840743</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02900414794099595</v>
+        <v>0.03435580560023899</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1147048309.265002</v>
+        <v>1290903715.201817</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1117730941084311</v>
+        <v>0.09706219496565703</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03793772011697633</v>
+        <v>0.0449327183343338</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1803048226.939898</v>
+        <v>1377278902.771371</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1022064822156991</v>
+        <v>0.1029736436162438</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03785351019567648</v>
+        <v>0.02834928993399243</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2479035780.1545</v>
+        <v>2903126104.152277</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1765458321465869</v>
+        <v>0.173272685781971</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04806646274638619</v>
+        <v>0.04330783473536039</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1037642746.029055</v>
+        <v>1324308753.166504</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08194569906020147</v>
+        <v>0.07484075940121927</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02348487850822411</v>
+        <v>0.02329539363738024</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1182323088.701883</v>
+        <v>913050615.6986393</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1001221258341802</v>
+        <v>0.1113947202069515</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03313482507638948</v>
+        <v>0.03297872754188427</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2438824142.440119</v>
+        <v>2612487914.458789</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1129125561390868</v>
+        <v>0.1589023987007264</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02052935265960106</v>
+        <v>0.0252454803506292</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2128932569.5027</v>
+        <v>2603697582.091389</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07303450155894252</v>
+        <v>0.07340156294893105</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03526525783671833</v>
+        <v>0.02991303313655853</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1951245613.823457</v>
+        <v>1862566338.466174</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09491319621164682</v>
+        <v>0.09492672120271969</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02700518537265585</v>
+        <v>0.0356018991877473</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2214351809.883306</v>
+        <v>1586558719.802559</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1249317205025383</v>
+        <v>0.121346221577457</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03309812986336564</v>
+        <v>0.02426815868027207</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1760068786.046758</v>
+        <v>1261489426.471025</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1114408246743887</v>
+        <v>0.150140086456036</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05494672833741519</v>
+        <v>0.03901504861630586</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1888274272.255593</v>
+        <v>2443114459.859878</v>
       </c>
       <c r="F41" t="n">
-        <v>0.130979892760891</v>
+        <v>0.1392384060919432</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02978177663511882</v>
+        <v>0.04408874131575977</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3571269860.446097</v>
+        <v>3598774012.054647</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0983478243120733</v>
+        <v>0.126638125770841</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02938017495260678</v>
+        <v>0.04596921155664627</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2395377464.232732</v>
+        <v>2048253735.862832</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1523000866855417</v>
+        <v>0.1659403165413979</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02491713757603944</v>
+        <v>0.0244663692204813</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1485712652.141253</v>
+        <v>2107177210.566858</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1011021038041442</v>
+        <v>0.06472118724721461</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0246005600062839</v>
+        <v>0.02745157642022083</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2544957140.776834</v>
+        <v>2134065468.391225</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1337448166993569</v>
+        <v>0.1558084194338568</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05041245947885228</v>
+        <v>0.0519858622319142</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3554238877.01938</v>
+        <v>5027976778.564261</v>
       </c>
       <c r="F46" t="n">
-        <v>0.137088913037582</v>
+        <v>0.1570992605930128</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0593653183290839</v>
+        <v>0.04528299327837766</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4670693808.869794</v>
+        <v>3690876930.30699</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1409676111594005</v>
+        <v>0.2024235242215377</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05362052931794402</v>
+        <v>0.03622368189679458</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3097274447.29944</v>
+        <v>3950923660.336354</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07080762675892797</v>
+        <v>0.0738069397042599</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02520870653030113</v>
+        <v>0.027072130533077</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1972571613.86034</v>
+        <v>1852584672.804728</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1217163265296224</v>
+        <v>0.1716380270012142</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03948784605710275</v>
+        <v>0.02700680177511949</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3909758353.955979</v>
+        <v>2851836736.753735</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1238393083746505</v>
+        <v>0.1203057502581983</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04607586462082931</v>
+        <v>0.0369423437270839</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1423574817.399435</v>
+        <v>1498594951.700207</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1887992421839721</v>
+        <v>0.1861788520309813</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03728818969043086</v>
+        <v>0.03641801998781452</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3981724975.722089</v>
+        <v>4398554569.98779</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09309222733781145</v>
+        <v>0.1031634339862597</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05754471669247841</v>
+        <v>0.04157333485860543</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3637278681.401546</v>
+        <v>3092389620.239846</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1777931847270411</v>
+        <v>0.163237103702378</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02876459522586178</v>
+        <v>0.02501040539352464</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4092051132.144673</v>
+        <v>4963332306.244612</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1462380977316786</v>
+        <v>0.1633954304635608</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03770840795147424</v>
+        <v>0.04365744431147594</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4020832479.827524</v>
+        <v>4181052389.930097</v>
       </c>
       <c r="F55" t="n">
-        <v>0.157250351062925</v>
+        <v>0.2029026000563308</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03198154686870874</v>
+        <v>0.0217716718542805</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1711971755.284865</v>
+        <v>1291570797.318188</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1042391314682664</v>
+        <v>0.112347447712524</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04559391619514499</v>
+        <v>0.05827328183733359</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4511846208.601792</v>
+        <v>3713928580.588477</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1688937126110436</v>
+        <v>0.1389052137282378</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02167704801442416</v>
+        <v>0.02162463703413527</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1503521829.832937</v>
+        <v>1469150529.029644</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1827551768460462</v>
+        <v>0.1361933462286644</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03875106141201157</v>
+        <v>0.03231489626310946</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3996088982.725611</v>
+        <v>4583437749.320071</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08045042678668111</v>
+        <v>0.1008392946201716</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04200965081927201</v>
+        <v>0.0356334987280098</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3588873206.570192</v>
+        <v>2801956192.558478</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1938773775018698</v>
+        <v>0.1321526094816544</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02604839369727619</v>
+        <v>0.02333397549162004</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2518663325.27723</v>
+        <v>2799128777.550293</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1199796575333494</v>
+        <v>0.1122919920406288</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02844966470615982</v>
+        <v>0.02200355683583396</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1742114936.935694</v>
+        <v>1281756911.798518</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1528954071570163</v>
+        <v>0.1514482948503568</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04571668346320156</v>
+        <v>0.04231915199696838</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4558196637.994271</v>
+        <v>4601970639.844295</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1073453014548341</v>
+        <v>0.08360705184686988</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0289728062551012</v>
+        <v>0.04458795038130269</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4032321318.832097</v>
+        <v>3510161741.947686</v>
       </c>
       <c r="F64" t="n">
-        <v>0.172061810764775</v>
+        <v>0.1449949772853127</v>
       </c>
       <c r="G64" t="n">
-        <v>0.022120343994337</v>
+        <v>0.03121156598982291</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5232046978.615458</v>
+        <v>3949691133.705529</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1395218867593501</v>
+        <v>0.1289370178666486</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02053051225048064</v>
+        <v>0.02728915595755562</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5090164679.218107</v>
+        <v>3636304727.814713</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1352908991594331</v>
+        <v>0.1082279193096817</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03819664923480574</v>
+        <v>0.05062446170757986</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2549421670.728655</v>
+        <v>2978289218.785955</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07259269948476035</v>
+        <v>0.06382946028525351</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03865613288977348</v>
+        <v>0.04651227814033225</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4341300284.253526</v>
+        <v>4354319380.683074</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1567985234921306</v>
+        <v>0.1412603545520781</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04707161819929767</v>
+        <v>0.03553738147662208</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1992658309.8945</v>
+        <v>1680399191.338379</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1179203626659918</v>
+        <v>0.1282379322972571</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05292621054280448</v>
+        <v>0.05028757269412223</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2588174097.668402</v>
+        <v>3257148502.212955</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0702820501053053</v>
+        <v>0.09233091906057243</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03596572226499157</v>
+        <v>0.03187522230899187</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4491921766.619023</v>
+        <v>4253146618.811191</v>
       </c>
       <c r="F71" t="n">
-        <v>0.119484284169748</v>
+        <v>0.1615542675930065</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02099774858096829</v>
+        <v>0.02883719506857839</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1849766995.133083</v>
+        <v>1672427740.524926</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1072938961292677</v>
+        <v>0.07047228156972551</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03482588383695535</v>
+        <v>0.03311242784431542</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2374476890.017646</v>
+        <v>2734357921.899068</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1093847557936131</v>
+        <v>0.07642719020675216</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03525837913287024</v>
+        <v>0.03769785772130672</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2442827166.882661</v>
+        <v>2591231090.233978</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1148561734852844</v>
+        <v>0.1431005886905964</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02897498052832468</v>
+        <v>0.03490861858510119</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1853306896.912383</v>
+        <v>1953661449.803227</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1057133784409984</v>
+        <v>0.1574553146803852</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02320230452770642</v>
+        <v>0.03440967227653783</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3453243579.055639</v>
+        <v>3575831183.163218</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1028836682279197</v>
+        <v>0.07839553500659295</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02293727548381505</v>
+        <v>0.03431825973380512</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1878619592.290557</v>
+        <v>2114757733.457049</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1516576638433428</v>
+        <v>0.1660501780020467</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02583937116461671</v>
+        <v>0.02521932594761591</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2911085397.527652</v>
+        <v>3138598948.306861</v>
       </c>
       <c r="F78" t="n">
-        <v>0.129114662076103</v>
+        <v>0.1368655030802376</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04742799867065368</v>
+        <v>0.04390050940457989</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1548460761.501177</v>
+        <v>1159387570.425236</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1503096990784567</v>
+        <v>0.1655865783721877</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03702486603875568</v>
+        <v>0.0368332353841359</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3599554604.418365</v>
+        <v>3857424661.785109</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1054687713820294</v>
+        <v>0.07509459657844079</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03338216870065385</v>
+        <v>0.02569952284537805</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3315315576.124775</v>
+        <v>4172158512.601302</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09413245160325225</v>
+        <v>0.125571319819144</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02693028358002644</v>
+        <v>0.02584639427978137</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4374640066.25244</v>
+        <v>4936495042.852369</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1917077090041269</v>
+        <v>0.1651615368281876</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02847491612616023</v>
+        <v>0.02052973006307082</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2340259658.781067</v>
+        <v>2199318987.420243</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1432900862849574</v>
+        <v>0.1096354235288883</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03230349238436391</v>
+        <v>0.0375009991240955</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1592342531.527172</v>
+        <v>1570946597.644296</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1186369846182695</v>
+        <v>0.09219212372391893</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04988040916018038</v>
+        <v>0.05232346167995489</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3641396252.339661</v>
+        <v>2624509639.710584</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1358100411323453</v>
+        <v>0.1212523106321343</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04764944102284845</v>
+        <v>0.03620510708508369</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2030659625.441916</v>
+        <v>2119839231.721951</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1537586691788183</v>
+        <v>0.141806086539309</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01843838851438766</v>
+        <v>0.02415112322212942</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1083299098.114093</v>
+        <v>1089942110.679017</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1787988423824775</v>
+        <v>0.1556429603120262</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02928795878382095</v>
+        <v>0.04372903187008803</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3057869952.636828</v>
+        <v>3038365187.221082</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1365638355173651</v>
+        <v>0.1448979397287022</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02939332523964671</v>
+        <v>0.0247380618541599</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2636532361.231149</v>
+        <v>2222423060.292198</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1440997977862269</v>
+        <v>0.138344129031946</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04057128311902037</v>
+        <v>0.03813687401698025</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1997230057.38304</v>
+        <v>1668179426.079154</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1238895700535361</v>
+        <v>0.1262786647946361</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04778569761146609</v>
+        <v>0.0536688608006484</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1396912291.592901</v>
+        <v>1310943523.605814</v>
       </c>
       <c r="F91" t="n">
-        <v>0.124567059499655</v>
+        <v>0.1942051301805125</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04094192054902759</v>
+        <v>0.04312854316505363</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2936228093.147983</v>
+        <v>2080212836.207137</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07088099624543429</v>
+        <v>0.09096758306966002</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03659120245947276</v>
+        <v>0.03145810183129078</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4988615529.719167</v>
+        <v>3224404444.344308</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1317439962940188</v>
+        <v>0.1025788982504717</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03342203702328846</v>
+        <v>0.04548016862905461</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1742516432.597882</v>
+        <v>1928632643.352737</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1026080115879539</v>
+        <v>0.1085842910178417</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03852542521527873</v>
+        <v>0.03602959410072241</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3077847408.983566</v>
+        <v>2401046288.471938</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1098050795793513</v>
+        <v>0.1222915830476785</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0509331545519623</v>
+        <v>0.0474553444806872</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1904861368.31704</v>
+        <v>1559386764.020146</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1047352057935679</v>
+        <v>0.1017130677869797</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03913079360931492</v>
+        <v>0.04282421136201951</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4006893327.076065</v>
+        <v>3436410556.315412</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1221404428965199</v>
+        <v>0.1504822940089683</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02321866481938313</v>
+        <v>0.01986206857110942</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2669008608.717885</v>
+        <v>2670162300.94591</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1025773609285548</v>
+        <v>0.0988654355740349</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02297314453429426</v>
+        <v>0.032423662760306</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2409478150.457595</v>
+        <v>2945471701.958323</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09420465872999831</v>
+        <v>0.1279609465110462</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03493156486883527</v>
+        <v>0.02462313209655552</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4347149901.066531</v>
+        <v>4809634996.757901</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1459615916901152</v>
+        <v>0.1708451790547727</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02341497720609631</v>
+        <v>0.01970800054068525</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2284833694.694472</v>
+        <v>2728192655.60949</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1966278956722813</v>
+        <v>0.170495053720948</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04340695251681193</v>
+        <v>0.03761225735828853</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_235.xlsx
+++ b/output/fit_clients/fit_round_235.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2378856602.618196</v>
+        <v>2047923155.154697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1082527138555243</v>
+        <v>0.09501571251087752</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04558020300841929</v>
+        <v>0.02748293291951911</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2332717141.985694</v>
+        <v>1951282921.3094</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1615774090641829</v>
+        <v>0.1831628647024302</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04429197255108597</v>
+        <v>0.03231572751092616</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4720207074.142263</v>
+        <v>4231033313.333883</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1402679171212966</v>
+        <v>0.1287832999436496</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02550951998330729</v>
+        <v>0.02611139888701326</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>127</v>
+      </c>
+      <c r="J4" t="n">
+        <v>235</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2877766292.61069</v>
+        <v>3171901083.41108</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1057639965472523</v>
+        <v>0.09765618754729324</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03121911870879049</v>
+        <v>0.04521481570947523</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>96</v>
+      </c>
+      <c r="J5" t="n">
+        <v>232</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2358995744.450303</v>
+        <v>2060276135.526401</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1472432222109571</v>
+        <v>0.1231279168099085</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04922518109347675</v>
+        <v>0.04577958918985701</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2643067453.451623</v>
+        <v>2819624271.970404</v>
       </c>
       <c r="F7" t="n">
-        <v>0.082084356155886</v>
+        <v>0.09204319442007043</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03659560170936196</v>
+        <v>0.04700579094331147</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2994588289.016246</v>
+        <v>2911963088.747229</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1911810451243022</v>
+        <v>0.1986226775958886</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02286672817583969</v>
+        <v>0.03206386446015188</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>234</v>
+      </c>
+      <c r="K8" t="n">
+        <v>55.44636472537341</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1400177907.958093</v>
+        <v>1398638598.963095</v>
       </c>
       <c r="F9" t="n">
-        <v>0.142628558928883</v>
+        <v>0.1435266786683542</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03635493489342572</v>
+        <v>0.02669717461277677</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4034259524.00156</v>
+        <v>4122413726.121742</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1672584956558382</v>
+        <v>0.144859879424021</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04145286222589464</v>
+        <v>0.0429807268623177</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>214</v>
+      </c>
+      <c r="J10" t="n">
+        <v>235</v>
+      </c>
+      <c r="K10" t="n">
+        <v>116.0040202123108</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3807566429.778957</v>
+        <v>3891790602.967016</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1193773331164185</v>
+        <v>0.1575753167929676</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04879512737056575</v>
+        <v>0.03522686237531299</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>98</v>
+      </c>
+      <c r="J11" t="n">
+        <v>234</v>
+      </c>
+      <c r="K11" t="n">
+        <v>103.6559843221403</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2495574241.303504</v>
+        <v>3113029889.535473</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1363949545690187</v>
+        <v>0.1936218525829786</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05253708826219071</v>
+        <v>0.04549618923343526</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3899262917.0138</v>
+        <v>4117724547.913889</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07828369756951099</v>
+        <v>0.08373821757548329</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02135875963855887</v>
+        <v>0.02486582346933109</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>118</v>
+      </c>
+      <c r="J13" t="n">
+        <v>235</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3673696816.318096</v>
+        <v>3791493814.786228</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1809737437580449</v>
+        <v>0.151419123499465</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03270245128692136</v>
+        <v>0.03370096944278229</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>45</v>
+      </c>
+      <c r="J14" t="n">
+        <v>234</v>
+      </c>
+      <c r="K14" t="n">
+        <v>96.8002609414724</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1710362784.357134</v>
+        <v>1715746528.003214</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06999477759970106</v>
+        <v>0.09416266056238813</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04578814286475932</v>
+        <v>0.03908617709840737</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2795699117.969307</v>
+        <v>2726982731.3919</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07107511149508203</v>
+        <v>0.1156479938089726</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03399257827411685</v>
+        <v>0.04846944384912012</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4201619862.540303</v>
+        <v>3510628971.69531</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1068939258579848</v>
+        <v>0.1284436922899935</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05039454296779755</v>
+        <v>0.03240047662019013</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>113</v>
+      </c>
+      <c r="J17" t="n">
+        <v>235</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3482123048.54458</v>
+        <v>3488390707.957066</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1721873347154678</v>
+        <v>0.1577201563505155</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02669045391492273</v>
+        <v>0.02518341592697448</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>59</v>
+      </c>
+      <c r="J18" t="n">
+        <v>233</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>849434476.3711567</v>
+        <v>838868255.3403413</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1720017322061201</v>
+        <v>0.1648189694764148</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02162552441801507</v>
+        <v>0.02573222071169246</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2669449536.042738</v>
+        <v>2318722480.749277</v>
       </c>
       <c r="F20" t="n">
-        <v>0.151115059712702</v>
+        <v>0.160500369153724</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02803087691308191</v>
+        <v>0.02410197999462419</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2333892181.703389</v>
+        <v>2364149999.577461</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0751860520469524</v>
+        <v>0.06865545937647816</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0339793726847193</v>
+        <v>0.02930913352612299</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2478557271.386835</v>
+        <v>3710394343.87312</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1274347232162069</v>
+        <v>0.09682473309124473</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04901958112956713</v>
+        <v>0.04377717454022462</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>59</v>
+      </c>
+      <c r="J22" t="n">
+        <v>235</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1030764096.930651</v>
+        <v>1100270194.732978</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1194074862164815</v>
+        <v>0.144864675721549</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04095721456817894</v>
+        <v>0.04846888764381647</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3986458854.190563</v>
+        <v>3329995493.964893</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1226572392857679</v>
+        <v>0.1078483989667831</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02903628201200667</v>
+        <v>0.03161657089603073</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>71</v>
+      </c>
+      <c r="J24" t="n">
+        <v>233</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1165112932.424269</v>
+        <v>1458835993.590863</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1170843505374883</v>
+        <v>0.09000611672064607</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02447094535743366</v>
+        <v>0.02014059667862704</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1222614284.465582</v>
+        <v>1385513738.048507</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09685006582946648</v>
+        <v>0.09202197844036729</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0260111877022829</v>
+        <v>0.02548656640078887</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2912023664.126285</v>
+        <v>3700736469.959853</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1212676470356838</v>
+        <v>0.1529574103450649</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02032269717071397</v>
+        <v>0.0212342905100118</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>95</v>
+      </c>
+      <c r="J27" t="n">
+        <v>234</v>
+      </c>
+      <c r="K27" t="n">
+        <v>75.39503043465236</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2706714991.444438</v>
+        <v>3316143016.752361</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1010426531947487</v>
+        <v>0.09935883095687849</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04037027928152137</v>
+        <v>0.0357174079985108</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>48</v>
+      </c>
+      <c r="J28" t="n">
+        <v>230</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4165501252.93848</v>
+        <v>5179069697.818017</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1462406681967683</v>
+        <v>0.140112863692862</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03977064170076039</v>
+        <v>0.04234472035350904</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>224</v>
+      </c>
+      <c r="J29" t="n">
+        <v>235</v>
+      </c>
+      <c r="K29" t="n">
+        <v>117.981238261676</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1746254490.090727</v>
+        <v>1504953437.542115</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1225919944840743</v>
+        <v>0.1002916476350758</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03435580560023899</v>
+        <v>0.03029074027662735</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1290903715.201817</v>
+        <v>1389063193.411391</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09706219496565703</v>
+        <v>0.1086536980081826</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0449327183343338</v>
+        <v>0.03579430454107797</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1377278902.771371</v>
+        <v>1879186588.588832</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1029736436162438</v>
+        <v>0.1052341112811006</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02834928993399243</v>
+        <v>0.03663999228991333</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2903126104.152277</v>
+        <v>2100479264.698893</v>
       </c>
       <c r="F33" t="n">
-        <v>0.173272685781971</v>
+        <v>0.1774770949916161</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04330783473536039</v>
+        <v>0.05699991843625828</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1324308753.166504</v>
+        <v>1413021182.474767</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07484075940121927</v>
+        <v>0.1037500769847203</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02329539363738024</v>
+        <v>0.02249767614720018</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>913050615.6986393</v>
+        <v>1229143712.684607</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1113947202069515</v>
+        <v>0.1003759533690775</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03297872754188427</v>
+        <v>0.0315654197732777</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2612487914.458789</v>
+        <v>3218498263.25754</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1589023987007264</v>
+        <v>0.1386512034711511</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0252454803506292</v>
+        <v>0.01790157724297824</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2603697582.091389</v>
+        <v>2015935403.4303</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07340156294893105</v>
+        <v>0.09580570986637134</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02991303313655853</v>
+        <v>0.03177245711051424</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1862566338.466174</v>
+        <v>1410822677.625125</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09492672120271969</v>
+        <v>0.1144272390061219</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0356018991877473</v>
+        <v>0.0241873947888927</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1586558719.802559</v>
+        <v>1480889229.252874</v>
       </c>
       <c r="F39" t="n">
-        <v>0.121346221577457</v>
+        <v>0.1556344980613405</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02426815868027207</v>
+        <v>0.02952928855385776</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1261489426.471025</v>
+        <v>1140516649.895683</v>
       </c>
       <c r="F40" t="n">
-        <v>0.150140086456036</v>
+        <v>0.1253038082002386</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03901504861630586</v>
+        <v>0.04894220676668624</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2443114459.859878</v>
+        <v>2792685460.092228</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1392384060919432</v>
+        <v>0.1449703123312165</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04408874131575977</v>
+        <v>0.04395957285392706</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3598774012.054647</v>
+        <v>3534329493.848853</v>
       </c>
       <c r="F42" t="n">
-        <v>0.126638125770841</v>
+        <v>0.1094814552206393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04596921155664627</v>
+        <v>0.04058339644273271</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>96</v>
+      </c>
+      <c r="J42" t="n">
+        <v>234</v>
+      </c>
+      <c r="K42" t="n">
+        <v>84.82651376989881</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2048253735.862832</v>
+        <v>2938092116.567726</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1659403165413979</v>
+        <v>0.1455417233964376</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0244663692204813</v>
+        <v>0.02375091758450398</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2107177210.566858</v>
+        <v>1496949651.440275</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06472118724721461</v>
+        <v>0.09066904909857204</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02745157642022083</v>
+        <v>0.03426038158751702</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2134065468.391225</v>
+        <v>2225783658.891654</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1558084194338568</v>
+        <v>0.1250643719010717</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0519858622319142</v>
+        <v>0.05009865028775645</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5027976778.564261</v>
+        <v>5615208767.484633</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1570992605930128</v>
+        <v>0.1103032725533378</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04528299327837766</v>
+        <v>0.05152579569167302</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>135</v>
+      </c>
+      <c r="J46" t="n">
+        <v>234</v>
+      </c>
+      <c r="K46" t="n">
+        <v>108.5927285025411</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3690876930.30699</v>
+        <v>4329329269.573901</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2024235242215377</v>
+        <v>0.1830482516327704</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03622368189679458</v>
+        <v>0.04240229058724175</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>105</v>
+      </c>
+      <c r="J47" t="n">
+        <v>234</v>
+      </c>
+      <c r="K47" t="n">
+        <v>88.70663611090889</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3950923660.336354</v>
+        <v>4579018765.558112</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0738069397042599</v>
+        <v>0.1007848380661891</v>
       </c>
       <c r="G48" t="n">
-        <v>0.027072130533077</v>
+        <v>0.02522870904907381</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>115</v>
+      </c>
+      <c r="J48" t="n">
+        <v>235</v>
+      </c>
+      <c r="K48" t="n">
+        <v>113.5300289038585</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1852584672.804728</v>
+        <v>1952540499.173827</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1716380270012142</v>
+        <v>0.1907435890374772</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02700680177511949</v>
+        <v>0.03397669424895271</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2851836736.753735</v>
+        <v>2869910530.006204</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1203057502581983</v>
+        <v>0.1767351987136287</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0369423437270839</v>
+        <v>0.04403334949822549</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>77</v>
+      </c>
+      <c r="J50" t="n">
+        <v>232</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1498594951.700207</v>
+        <v>1311955979.171806</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1861788520309813</v>
+        <v>0.1587114642783666</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03641801998781452</v>
+        <v>0.05245279619532766</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4398554569.98779</v>
+        <v>4732874015.141838</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1031634339862597</v>
+        <v>0.101258285832209</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04157333485860543</v>
+        <v>0.04965143340143365</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>154</v>
+      </c>
+      <c r="J52" t="n">
+        <v>235</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2300,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3092389620.239846</v>
+        <v>3365051812.556774</v>
       </c>
       <c r="F53" t="n">
-        <v>0.163237103702378</v>
+        <v>0.2046778759100772</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02501040539352464</v>
+        <v>0.03452077124444172</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="n">
+        <v>69.03075711483325</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4963332306.244612</v>
+        <v>3425548868.97438</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1633954304635608</v>
+        <v>0.1075973380610959</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04365744431147594</v>
+        <v>0.03246851733999354</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>125</v>
+      </c>
+      <c r="J54" t="n">
+        <v>233</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4181052389.930097</v>
+        <v>4888988590.807482</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2029026000563308</v>
+        <v>0.1887391993831911</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0217716718542805</v>
+        <v>0.02350477419613149</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>105</v>
+      </c>
+      <c r="J55" t="n">
+        <v>234</v>
+      </c>
+      <c r="K55" t="n">
+        <v>105.8779356862492</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1291570797.318188</v>
+        <v>1436889192.782506</v>
       </c>
       <c r="F56" t="n">
-        <v>0.112347447712524</v>
+        <v>0.1301270985765496</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05827328183733359</v>
+        <v>0.04896633444525231</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3713928580.588477</v>
+        <v>4336784862.21122</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1389052137282378</v>
+        <v>0.13667269396971</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02162463703413527</v>
+        <v>0.01822359305161258</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>92</v>
+      </c>
+      <c r="J57" t="n">
+        <v>235</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1469150529.029644</v>
+        <v>1309940507.688804</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1361933462286644</v>
+        <v>0.2014737800010191</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03231489626310946</v>
+        <v>0.02736959525768043</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4583437749.320071</v>
+        <v>3864880247.830256</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1008392946201716</v>
+        <v>0.1068421827406925</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0356334987280098</v>
+        <v>0.04168550826091151</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>113</v>
+      </c>
+      <c r="J59" t="n">
+        <v>235</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2801956192.558478</v>
+        <v>3062243344.586749</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1321526094816544</v>
+        <v>0.1781618606345886</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02333397549162004</v>
+        <v>0.03217674814012832</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>33</v>
+      </c>
+      <c r="J60" t="n">
+        <v>231</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2799128777.550293</v>
+        <v>2697491041.088719</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1122919920406288</v>
+        <v>0.1190592541946278</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02200355683583396</v>
+        <v>0.03138789621142089</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1281756911.798518</v>
+        <v>1316612954.721044</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1514482948503568</v>
+        <v>0.1247282102851767</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04231915199696838</v>
+        <v>0.04976659146575729</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4601970639.844295</v>
+        <v>3657641546.530137</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08360705184686988</v>
+        <v>0.06489152573304005</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04458795038130269</v>
+        <v>0.03474863136462329</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>114</v>
+      </c>
+      <c r="J63" t="n">
+        <v>235</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3510161741.947686</v>
+        <v>4224843692.868445</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1449949772853127</v>
+        <v>0.1764715686391633</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03121156598982291</v>
+        <v>0.0224403750029639</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>116</v>
+      </c>
+      <c r="J64" t="n">
+        <v>234</v>
+      </c>
+      <c r="K64" t="n">
+        <v>104.393914155659</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3949691133.705529</v>
+        <v>4501720935.727403</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1289370178666486</v>
+        <v>0.1646385069041804</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02728915595755562</v>
+        <v>0.02357550966362257</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>187</v>
+      </c>
+      <c r="J65" t="n">
+        <v>235</v>
+      </c>
+      <c r="K65" t="n">
+        <v>109.7132079331403</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3636304727.814713</v>
+        <v>3750606667.775795</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1082279193096817</v>
+        <v>0.1132442689686887</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05062446170757986</v>
+        <v>0.0396627141585124</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>116</v>
+      </c>
+      <c r="J66" t="n">
+        <v>234</v>
+      </c>
+      <c r="K66" t="n">
+        <v>80.61178351431056</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2978289218.785955</v>
+        <v>3498641212.217293</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06382946028525351</v>
+        <v>0.08219419675656815</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04651227814033225</v>
+        <v>0.03820529501639058</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>235</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4354319380.683074</v>
+        <v>3750040439.237269</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1412603545520781</v>
+        <v>0.1596053186116061</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03553738147662208</v>
+        <v>0.0353130478065271</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>118</v>
+      </c>
+      <c r="J68" t="n">
+        <v>235</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1680399191.338379</v>
+        <v>1560833709.870159</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1282379322972571</v>
+        <v>0.117561230638195</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05028757269412223</v>
+        <v>0.04137122822771044</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2905,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3257148502.212955</v>
+        <v>2616477226.497548</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09233091906057243</v>
+        <v>0.08226256117741905</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03187522230899187</v>
+        <v>0.04923759736935709</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>37</v>
+      </c>
+      <c r="J70" t="n">
+        <v>234</v>
+      </c>
+      <c r="K70" t="n">
+        <v>40.2925522599507</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4253146618.811191</v>
+        <v>4753795634.522308</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1615542675930065</v>
+        <v>0.1744110601561456</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02883719506857839</v>
+        <v>0.02135930242710719</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>178</v>
+      </c>
+      <c r="J71" t="n">
+        <v>235</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1672427740.524926</v>
+        <v>1695773062.245033</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07047228156972551</v>
+        <v>0.08846628102923863</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03311242784431542</v>
+        <v>0.04083184447910658</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2734357921.899068</v>
+        <v>3331169991.813468</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07642719020675216</v>
+        <v>0.09683415939580307</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03769785772130672</v>
+        <v>0.04668589808348886</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>233</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2591231090.233978</v>
+        <v>2833974877.149576</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1431005886905964</v>
+        <v>0.1153257823068384</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03490861858510119</v>
+        <v>0.02156010061701924</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>67</v>
+      </c>
+      <c r="J74" t="n">
+        <v>229</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1953661449.803227</v>
+        <v>2106679023.280454</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1574553146803852</v>
+        <v>0.1100035010570197</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03440967227653783</v>
+        <v>0.02489771212133621</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3575831183.163218</v>
+        <v>5274275955.423938</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07839553500659295</v>
+        <v>0.08764662520668168</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03431825973380512</v>
+        <v>0.03355621721779935</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>109</v>
+      </c>
+      <c r="J76" t="n">
+        <v>234</v>
+      </c>
+      <c r="K76" t="n">
+        <v>96.3298866045989</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2114757733.457049</v>
+        <v>1626359683.140402</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1660501780020467</v>
+        <v>0.1367336935888969</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02521932594761591</v>
+        <v>0.02966613657426746</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3138598948.306861</v>
+        <v>3438393302.547671</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1368655030802376</v>
+        <v>0.1310998056069433</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04390050940457989</v>
+        <v>0.05494544291822258</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>117</v>
+      </c>
+      <c r="J78" t="n">
+        <v>232</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1159387570.425236</v>
+        <v>1879180266.330445</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1655865783721877</v>
+        <v>0.1708953635516041</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0368332353841359</v>
+        <v>0.03870081523457396</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3857424661.785109</v>
+        <v>4563778736.91686</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07509459657844079</v>
+        <v>0.07038654922832646</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02569952284537805</v>
+        <v>0.03734161127588862</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>114</v>
+      </c>
+      <c r="J80" t="n">
+        <v>235</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4172158512.601302</v>
+        <v>3489075098.985242</v>
       </c>
       <c r="F81" t="n">
-        <v>0.125571319819144</v>
+        <v>0.1148496967905396</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02584639427978137</v>
+        <v>0.02118458991919566</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>108</v>
+      </c>
+      <c r="J81" t="n">
+        <v>233</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4936495042.852369</v>
+        <v>4113685827.605874</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1651615368281876</v>
+        <v>0.1929034362269268</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02052973006307082</v>
+        <v>0.01804768932995856</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>177</v>
+      </c>
+      <c r="J82" t="n">
+        <v>235</v>
+      </c>
+      <c r="K82" t="n">
+        <v>111.6785922987671</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2199318987.420243</v>
+        <v>2029674637.833281</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1096354235288883</v>
+        <v>0.1325034154542682</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0375009991240955</v>
+        <v>0.03548846936441756</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1570946597.644296</v>
+        <v>2210584623.200028</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09219212372391893</v>
+        <v>0.0750917735019674</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05232346167995489</v>
+        <v>0.03694664412699055</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2624509639.710584</v>
+        <v>3579431343.655224</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1212523106321343</v>
+        <v>0.1168201423616979</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03620510708508369</v>
+        <v>0.04294604814744427</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>31</v>
+      </c>
+      <c r="J85" t="n">
+        <v>235</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2119839231.721951</v>
+        <v>2433467232.384591</v>
       </c>
       <c r="F86" t="n">
-        <v>0.141806086539309</v>
+        <v>0.1278549175995229</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02415112322212942</v>
+        <v>0.02415214663793066</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1089942110.679017</v>
+        <v>1342330614.600832</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1556429603120262</v>
+        <v>0.1844456039651185</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04372903187008803</v>
+        <v>0.03797458965107667</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3038365187.221082</v>
+        <v>2855493991.680314</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1448979397287022</v>
+        <v>0.1621178719708155</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0247380618541599</v>
+        <v>0.02859206393409098</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>34</v>
+      </c>
+      <c r="J88" t="n">
+        <v>232</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2222423060.292198</v>
+        <v>2237596087.318039</v>
       </c>
       <c r="F89" t="n">
-        <v>0.138344129031946</v>
+        <v>0.1447348682951683</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03813687401698025</v>
+        <v>0.03122450599864502</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1668179426.079154</v>
+        <v>2168496238.05343</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1262786647946361</v>
+        <v>0.09524028395369193</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0536688608006484</v>
+        <v>0.0457189085723792</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1310943523.605814</v>
+        <v>1890340636.378647</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1942051301805125</v>
+        <v>0.1878498657093804</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04312854316505363</v>
+        <v>0.05670050073440396</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2080212836.207137</v>
+        <v>2966679848.250022</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09096758306966002</v>
+        <v>0.07040968808741914</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03145810183129078</v>
+        <v>0.04096529136405568</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3224404444.344308</v>
+        <v>4493552373.650085</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1025788982504717</v>
+        <v>0.1269224369927308</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04548016862905461</v>
+        <v>0.05006958835232986</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>104</v>
+      </c>
+      <c r="J93" t="n">
+        <v>235</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1928632643.352737</v>
+        <v>2088783664.767417</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1085842910178417</v>
+        <v>0.1553041482128937</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03602959410072241</v>
+        <v>0.04000301651848429</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2401046288.471938</v>
+        <v>1976746690.992129</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1222915830476785</v>
+        <v>0.09850509659570839</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0474553444806872</v>
+        <v>0.04804148053181746</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1559386764.020146</v>
+        <v>2134588181.547549</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1017130677869797</v>
+        <v>0.08879410193948215</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04282421136201951</v>
+        <v>0.02849229971614514</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3436410556.315412</v>
+        <v>4271082961.570812</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1504822940089683</v>
+        <v>0.1244821126149629</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01986206857110942</v>
+        <v>0.02585876243743146</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>114</v>
+      </c>
+      <c r="J97" t="n">
+        <v>234</v>
+      </c>
+      <c r="K97" t="n">
+        <v>108.3992708283248</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2670162300.94591</v>
+        <v>2610225508.508719</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0988654355740349</v>
+        <v>0.09666059500190984</v>
       </c>
       <c r="G98" t="n">
-        <v>0.032423662760306</v>
+        <v>0.02740731910469322</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>57</v>
+      </c>
+      <c r="J98" t="n">
+        <v>234</v>
+      </c>
+      <c r="K98" t="n">
+        <v>40.15188384231652</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2945471701.958323</v>
+        <v>2254195467.26135</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1279609465110462</v>
+        <v>0.1114075699193592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02462313209655552</v>
+        <v>0.03322255075381041</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4809634996.757901</v>
+        <v>4132310037.672398</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1708451790547727</v>
+        <v>0.1256724206411175</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01970800054068525</v>
+        <v>0.02326881340491181</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>98</v>
+      </c>
+      <c r="J100" t="n">
+        <v>235</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2728192655.60949</v>
+        <v>2589141297.240469</v>
       </c>
       <c r="F101" t="n">
-        <v>0.170495053720948</v>
+        <v>0.1541848998166994</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03761225735828853</v>
+        <v>0.05154008641090107</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
